--- a/기획/테이블/캐릭터/NPC 상호작용 마무리 작업 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC 상호작용 마무리 작업 테이블.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341E8A8-80DA-4459-8508-086F949ABE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F5258ED-8E5E-4A9E-8D51-070E13601506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2235" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="4395" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NPC 상호작용 마무리 작업 테이블" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,6 +432,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5001</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5002</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5003</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획/테이블/캐릭터/NPC 상호작용 마무리 작업 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC 상호작용 마무리 작업 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F5258ED-8E5E-4A9E-8D51-070E13601506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F435ED29-D2D1-4273-B61E-DD08C9B285AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="4395" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="4005" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 상호작용 마무리 작업 테이블" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>EndSequence</t>
+    <t>InteractionId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextInteraction</t>
+    <t>EndSequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,13 +360,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -379,21 +379,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>500</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -401,87 +401,87 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1500</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1501</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5000</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5001</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5002</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5003</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
